--- a/Schulsachen/3BWHII/SWP/Bisektion/BisketionKattner.xlsx
+++ b/Schulsachen/3BWHII/SWP/Bisektion/BisketionKattner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Documents\GITHUB\Software_Programmierung\Schulsachen\3BWHII\SWP\Bisektion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B944D-4BAA-4982-B07C-343AB1660B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA6248-7F77-4F22-9F5B-3FC67B605F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92712416-94B8-433F-86F1-CCBDE5826AEA}"/>
+    <workbookView xWindow="0" yWindow="732" windowWidth="23040" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{92712416-94B8-433F-86F1-CCBDE5826AEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagramm1" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Iteration</t>
   </si>
@@ -63,14 +64,14 @@
     <t>Spalte1</t>
   </si>
   <si>
-    <t>n=</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,28 +85,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,41 +102,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Warnender Text" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -180,6 +151,858 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8984375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8984375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.921875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.921875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.91015625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39897948556635576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39897948556635576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4198556635576267E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4198556635576267E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(b)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-19.101020514433642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.35102051443364424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.35102051443364424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16352051443364424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.9770514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2895514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2895514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1176764433644237E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.921875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8984375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.904296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-7.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39897948556635576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.35102051443364424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16352051443364424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.9770514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2895514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4198556635576267E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1176764433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.3173894336442373E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spalte1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-324D-4806-8516-031E36B5C998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="563328928"/>
+        <c:axId val="630568128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="563328928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630568128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630568128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563328928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -228,10 +1051,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$4:$G$11</c:f>
+              <c:f>Tabelle1!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -242,29 +1065,41 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.375</c:v>
+                  <c:v>4.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1875</c:v>
+                  <c:v>5.0625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.921875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8984375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.904296875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$11</c:f>
+              <c:f>Tabelle1!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-7.1010205144336442</c:v>
                 </c:pt>
@@ -275,19 +1110,31 @@
                   <c:v>1.8989794855663558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3989794855663558</c:v>
+                  <c:v>0.39897948556635576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1489794855663558</c:v>
+                  <c:v>-0.35102051443364424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5239794855663558</c:v>
+                  <c:v>2.3979485566355763E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7114794855663558</c:v>
+                  <c:v>-0.16352051443364424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8052294855663558</c:v>
+                  <c:v>-6.9770514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2895514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4198556635576267E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1176764433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.3173894336442373E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,7 +1333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -504,7 +1351,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -535,38 +1382,98 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$F$2:$F$6</c:f>
+              <c:f>Tabelle1!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.96875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.921875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8984375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.91015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.904296875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$G$2:$G$6</c:f>
+              <c:f>Tabelle1!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>-7.1010205144336442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.1010205144336442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39897948556635576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.35102051443364424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3979485566355763E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16352051443364424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.9770514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2895514433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4198556635576267E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1176764433644237E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.3173894336442373E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-631F-4682-99B8-73C227501298}"/>
+              <c16:uniqueId val="{00000000-521E-4FDF-B2B8-3268D1ABAD5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -578,11 +1485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179250527"/>
-        <c:axId val="179253887"/>
+        <c:axId val="1264618575"/>
+        <c:axId val="1264619055"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179250527"/>
+        <c:axId val="1264618575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,12 +1546,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179253887"/>
+        <c:crossAx val="1264619055"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179253887"/>
+        <c:axId val="1264619055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +1608,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179250527"/>
+        <c:crossAx val="1264618575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -715,6 +1622,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -830,8 +1744,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -858,8 +1812,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -960,7 +1914,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -992,10 +1946,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1035,23 +1989,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1156,8 +2109,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1289,20 +2242,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1316,17 +2268,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1862,20 +2803,580 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60E12EC1-3276-4D4D-8895-DA94949A84E3}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9272954" cy="5967046"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A91DD30-8FDD-FF74-94C4-72B30A7EF2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>5555</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10317</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1903,31 +3404,33 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>610870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E314D6D-AA64-0F83-F346-02216F9945C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5CF5B0-61F1-4216-A0DD-C9608046152B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1945,26 +3448,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A494070-9946-49B7-88FA-DABBD51DE0C2}" name="Tabelle1" displayName="Tabelle1" ref="B3:I11" totalsRowShown="0">
-  <autoFilter ref="B3:I11" xr:uid="{9A494070-9946-49B7-88FA-DABBD51DE0C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A494070-9946-49B7-88FA-DABBD51DE0C2}" name="Tabelle1" displayName="Tabelle1" ref="B3:I15" totalsRowShown="0">
+  <autoFilter ref="B3:I15" xr:uid="{9A494070-9946-49B7-88FA-DABBD51DE0C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0B733D14-1EB3-43A0-95F8-2E58E0EC7333}" name="Iteration"/>
     <tableColumn id="2" xr3:uid="{E870776A-BED1-445F-A001-80AE8A971E51}" name="a"/>
     <tableColumn id="3" xr3:uid="{01751A51-ADDA-4AB3-BD42-DB7A5524BA71}" name="b"/>
-    <tableColumn id="4" xr3:uid="{95B9C55B-0D11-4A6D-AA1A-DFE38236435B}" name="f(a)" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{95B9C55B-0D11-4A6D-AA1A-DFE38236435B}" name="f(a)" dataDxfId="7">
       <calculatedColumnFormula>SQRT($J$3)-C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9BF0F5BB-BE43-458E-82E7-3452D39B7522}" name="f(b)" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{9BF0F5BB-BE43-458E-82E7-3452D39B7522}" name="f(b)" dataDxfId="6">
       <calculatedColumnFormula>SQRT($J$3)-D4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{AA8E2CEC-B4A8-4B66-9D11-200F7ECB9F55}" name="c">
       <calculatedColumnFormula>(D4+C4)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8134B49A-3488-4041-9B24-C77675D9BA1D}" name="f(C)" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{8134B49A-3488-4041-9B24-C77675D9BA1D}" name="f(C)" dataDxfId="5">
       <calculatedColumnFormula>SQRT($J$3)-G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{34066D3C-D3D1-4934-9479-A091FDFC4E1D}" name="Spalte1">
-      <calculatedColumnFormula>(C4*D4)&lt; 0</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{34066D3C-D3D1-4934-9479-A091FDFC4E1D}" name="Spalte1" dataDxfId="4">
+      <calculatedColumnFormula>(E4*F4)&lt; 0</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1972,25 +3475,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B368BDA-729A-4E72-9B1D-40193B966F13}" name="Tabelle13" displayName="Tabelle13" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{3B368BDA-729A-4E72-9B1D-40193B966F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C478C67-E86B-41CB-BD6D-73B1B5C5052A}" name="Tabelle13" displayName="Tabelle13" ref="C5:J17" totalsRowShown="0">
+  <autoFilter ref="C5:J17" xr:uid="{1C478C67-E86B-41CB-BD6D-73B1B5C5052A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{818FA413-515B-4297-B327-1C2286992B36}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{9384F13E-A769-4E68-955D-8775E0E04889}" name="a"/>
-    <tableColumn id="3" xr3:uid="{A56B97C3-8506-425F-890D-86DFF9657AA8}" name="b"/>
-    <tableColumn id="4" xr3:uid="{559BC3B0-58A6-456B-8268-35FC36F5C81A}" name="f(a)" dataDxfId="2">
-      <calculatedColumnFormula>SQRT($J$5)-B2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4FEFA8CB-BDFA-4A39-A0C4-8F64286B4EF4}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{6675ACC9-50DD-4145-8EC3-198FFBD4FC9F}" name="a"/>
+    <tableColumn id="3" xr3:uid="{BAA6B859-FCEC-460F-BDF5-928015FB090E}" name="b"/>
+    <tableColumn id="4" xr3:uid="{A5925B04-AEBC-4F7B-A989-4ED238F8F6F1}" name="f(a)" dataDxfId="3">
+      <calculatedColumnFormula>SQRT($J$3)-D6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1FEE36C4-AC9A-47FC-9A03-2D3AFFAEFCF3}" name="f(b)" dataDxfId="1">
-      <calculatedColumnFormula>SQRT($J$5)-C2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{0E036AEB-5E10-4466-BB4C-E68C1BBDD815}" name="f(b)" dataDxfId="2">
+      <calculatedColumnFormula>SQRT($J$3)-E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FF3501D8-EC9E-4102-8774-635FD19633C9}" name="c"/>
-    <tableColumn id="7" xr3:uid="{B1DD6920-ED51-48A7-A97D-0AB224394713}" name="f(C)" dataDxfId="0">
-      <calculatedColumnFormula>SQRT($J$5)-F2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{A9D7D5C4-58CB-4703-8CBD-1117B58B47DF}" name="c">
+      <calculatedColumnFormula>(E6+D6)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{07F87D27-BC67-403B-B9FF-167A55DB6444}" name="Spalte1"/>
+    <tableColumn id="7" xr3:uid="{CEE8273B-3DC2-439E-8023-E47F030A99C9}" name="f(C)" dataDxfId="1">
+      <calculatedColumnFormula>SQRT($J$3)-H6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1378C3F0-1024-4651-8A2A-62E88E00F61D}" name="Spalte1" dataDxfId="0">
+      <calculatedColumnFormula>(F6*G6)&lt; 0</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2311,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89769E17-7F04-4FF9-9A80-0C35AF371411}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,15 +3866,15 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <f>SQRT($J$3)-C4</f>
+        <f t="shared" ref="E4:F7" si="0">SQRT($J$3)-C4</f>
         <v>4.8989794855663558</v>
       </c>
       <c r="F4">
-        <f>SQRT($J$3)-D4</f>
+        <f t="shared" si="0"/>
         <v>-19.101020514433642</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="0">(D4+C4)/2</f>
+        <f t="shared" ref="G4:G5" si="1">(D4+C4)/2</f>
         <v>12</v>
       </c>
       <c r="H4">
@@ -2375,8 +3882,8 @@
         <v>-7.1010205144336442</v>
       </c>
       <c r="I4" t="b">
-        <f>(C4*D4)&lt; 0</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I11" si="2">(E4*F4)&lt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2384,21 +3891,23 @@
         <v>2</v>
       </c>
       <c r="C5">
+        <f>IF(H4&lt;0,C4,G4)</f>
         <v>0</v>
       </c>
       <c r="D5">
+        <f>IF(H4&gt;0,D4,G4)</f>
         <v>12</v>
       </c>
       <c r="E5">
-        <f>SQRT($J$3)-C5</f>
+        <f t="shared" si="0"/>
         <v>4.8989794855663558</v>
       </c>
       <c r="F5">
-        <f>SQRT($J$3)-D5</f>
+        <f t="shared" si="0"/>
         <v>-7.1010205144336442</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H5">
@@ -2406,8 +3915,8 @@
         <v>-1.1010205144336442</v>
       </c>
       <c r="I5" t="b">
-        <f t="shared" ref="I5:I6" si="1">(C5*D5)&lt; 0</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2415,30 +3924,32 @@
         <v>3</v>
       </c>
       <c r="C6">
+        <f t="shared" ref="C6:C11" si="3">IF(H5&lt;0,C5,G5)</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f t="shared" ref="D6:D11" si="4">IF(H5&gt;0,D5,G5)</f>
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <f>SQRT($J$3)-C6</f>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="5">SQRT($J$3)-C6</f>
         <v>4.8989794855663558</v>
       </c>
-      <c r="F6" s="1">
-        <f>SQRT($J$3)-D6</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F11" si="6">SQRT($J$3)-D6</f>
         <v>-1.1010205144336442</v>
       </c>
       <c r="G6">
-        <f>(D6+C6)/2</f>
+        <f t="shared" ref="G6:G11" si="7">(D6+C6)/2</f>
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <f>SQRT($J$3)-G6</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H18" si="8">SQRT($J$3)-G6</f>
         <v>1.8989794855663558</v>
       </c>
       <c r="I6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2446,30 +3957,32 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <f>SQRT($J$3)-C7</f>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="F7" s="1">
-        <f>SQRT($J$3)-D7</f>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
         <v>1.8989794855663558</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>-1.1010205144336442</v>
+      </c>
       <c r="G7">
-        <f>(D7+C7)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT($J$3)-G7</f>
-        <v>3.3989794855663558</v>
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>0.39897948556635576</v>
       </c>
       <c r="I7" t="b">
-        <f>(C7*D7)&lt; 0</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2477,30 +3990,32 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ref="E8:E10" si="2">SQRT($J$3)-C8</f>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F10" si="3">SQRT($J$3)-D8</f>
-        <v>3.3989794855663558</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>0.39897948556635576</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>-1.1010205144336442</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="4">(D8+C8)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ref="H8:H10" si="5">SQRT($J$3)-G8</f>
-        <v>4.1489794855663558</v>
+        <f t="shared" si="7"/>
+        <v>5.25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>-0.35102051443364424</v>
       </c>
       <c r="I8" t="b">
-        <f t="shared" ref="I8:I10" si="6">(C8*D8)&lt; 0</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2508,30 +4023,32 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>0.39897948556635576</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>-0.35102051443364424</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>4.875</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>2.3979485566355763E-2</v>
+      </c>
+      <c r="I9" t="b">
         <f t="shared" si="2"/>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1489794855663558</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0.375</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="5"/>
-        <v>4.5239794855663558</v>
-      </c>
-      <c r="I9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2539,30 +4056,32 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.875</v>
       </c>
       <c r="D10">
-        <v>0.375</v>
-      </c>
-      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>2.3979485566355763E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>-0.35102051443364424</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>5.0625</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>-0.16352051443364424</v>
+      </c>
+      <c r="I10" t="b">
         <f t="shared" si="2"/>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5239794855663558</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="5"/>
-        <v>4.7114794855663558</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2570,36 +4089,168 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.875</v>
       </c>
       <c r="D11">
-        <v>0.1875</v>
-      </c>
-      <c r="E11" s="1">
-        <f>SQRT($J$3)-C11</f>
-        <v>4.8989794855663558</v>
-      </c>
-      <c r="F11" s="1">
-        <f>SQRT($J$3)-D11</f>
-        <v>4.7114794855663558</v>
+        <f t="shared" si="4"/>
+        <v>5.0625</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>2.3979485566355763E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>-0.16352051443364424</v>
       </c>
       <c r="G11">
-        <f>(D11+C11)/2</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT($J$3)-G11</f>
-        <v>4.8052294855663558</v>
+        <f t="shared" si="7"/>
+        <v>4.96875</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>-6.9770514433644237E-2</v>
       </c>
       <c r="I11" t="b">
-        <f>(C11*D11)&lt; 0</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C18" si="9">IF(H11&lt;0,C11,G11)</f>
+        <v>4.875</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D18" si="10">IF(H11&gt;0,D11,G11)</f>
+        <v>4.96875</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E18" si="11">SQRT($J$3)-C12</f>
+        <v>2.3979485566355763E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F18" si="12">SQRT($J$3)-D12</f>
+        <v>-6.9770514433644237E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G18" si="13">(D12+C12)/2</f>
+        <v>4.921875</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>-2.2895514433644237E-2</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" ref="I12:I18" si="14">(E12*F12)&lt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="9"/>
+        <v>4.875</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="10"/>
+        <v>4.921875</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>2.3979485566355763E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="12"/>
+        <v>-2.2895514433644237E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="13"/>
+        <v>4.8984375</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>5.4198556635576267E-4</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="9"/>
+        <v>4.8984375</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>4.921875</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="11"/>
+        <v>5.4198556635576267E-4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>-2.2895514433644237E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="13"/>
+        <v>4.91015625</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>-1.1176764433644237E-2</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="9"/>
+        <v>4.8984375</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="10"/>
+        <v>4.91015625</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="11"/>
+        <v>5.4198556635576267E-4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="12"/>
+        <v>-1.1176764433644237E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="13"/>
+        <v>4.904296875</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>-5.3173894336442373E-3</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2612,113 +4263,409 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05080563-B329-4FF0-ADAF-A9342B6B8E1D}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73357C21-7D23-4755-ACA7-59F5110F9ABE}">
+  <dimension ref="C5:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J5" t="s">
         <v>7</v>
       </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="D2">
-        <f>SQRT($J$5)-B2</f>
+      <c r="F6">
+        <f t="shared" ref="F6:G17" si="0">SQRT($J$3)-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H17" si="1">(E6+D6)/2</f>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f>SQRT($J$3)-H6</f>
+        <v>-8</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" ref="J6:J17" si="2">(F6*G6)&lt; 0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>IF(I6&lt;0,D6,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(I6&gt;0,E6,H6)</f>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E2">
-        <f>SQRT($J$5)-C2</f>
-        <v>-12</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F6" si="0">(C2+B2)/2</f>
+      <c r="I7">
+        <f>SQRT($J$3)-H7</f>
+        <v>-4</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D17" si="3">IF(I7&lt;0,D7,H7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E17" si="4">IF(I7&gt;0,E7,H7)</f>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I17" si="5">SQRT($J$3)-H8</f>
+        <v>-2</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>-0.125</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="G2">
-        <f>SQRT($J$5)-F2</f>
-        <v>-4</v>
-      </c>
-      <c r="H2" t="b">
-        <f>(B2*C2)&lt; 0</f>
+      <c r="D13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <f>SQRT($J$5)-B3</f>
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <f>SQRT($J$5)-C3</f>
-        <v>-4</v>
-      </c>
-      <c r="F3">
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <f>SQRT($J$5)-F3</f>
         <v>0</v>
       </c>
-      <c r="H3" t="b">
-        <f t="shared" ref="H3:H6" si="1">(B3*C3)&lt; 0</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3">
-        <v>16</v>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
